--- a/data_output/prism_passive/all_passive_out_emg_gl_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.7011962792075028</v>
+        <v>1.701196191284404</v>
       </c>
       <c r="C2">
-        <v>0.8338741180933803</v>
+        <v>0.83387411454845017</v>
       </c>
       <c r="D2">
-        <v>10.249455395204556</v>
+        <v>10.24945543150975</v>
       </c>
       <c r="E2">
-        <v>5.757170036044073</v>
+        <v>5.7571700904704697</v>
       </c>
       <c r="F2">
-        <v>5.6744702339334294</v>
+        <v>5.6744702423056594</v>
       </c>
       <c r="G2">
-        <v>1.8160258777125129</v>
+        <v>1.8160256900951224</v>
       </c>
       <c r="H2">
-        <v>6.2536377399074041</v>
+        <v>6.253637735215829</v>
       </c>
       <c r="I2">
-        <v>0.7154571043361001</v>
+        <v>0.71545700164345494</v>
       </c>
       <c r="J2">
-        <v>7.5997510167282698</v>
+        <v>7.5997520868493114</v>
       </c>
       <c r="K2">
-        <v>4.2643591291609697</v>
+        <v>4.2643591040345648</v>
       </c>
       <c r="L2">
-        <v>3.9866634325775347</v>
+        <v>3.9866628557669377</v>
       </c>
       <c r="M2">
-        <v>2.0626476157028995</v>
+        <v>2.0626476415058579</v>
       </c>
       <c r="N2">
-        <v>9.9393362706976837E-2</v>
+        <v>9.9393366116697135E-2</v>
       </c>
       <c r="O2">
-        <v>1.6461967567713416</v>
+        <v>1.6461965058822148</v>
       </c>
       <c r="P2">
-        <v>0.5035235097129972</v>
+        <v>0.50352344928927539</v>
       </c>
       <c r="Q2">
-        <v>0.79900971803841314</v>
+        <v>0.79900971717120584</v>
       </c>
       <c r="R2">
-        <v>1.4438790196930278</v>
+        <v>1.4438791746789432</v>
       </c>
       <c r="S2">
-        <v>1.5084321738155946</v>
+        <v>1.5084321739403446</v>
       </c>
       <c r="T2">
-        <v>0.62738474748016115</v>
+        <v>0.62738474641206288</v>
       </c>
       <c r="U2">
-        <v>2.8561825935676866</v>
+        <v>2.8561825938090251</v>
       </c>
       <c r="V2">
-        <v>1.9834314519963065</v>
+        <v>1.9834313405165218</v>
       </c>
       <c r="W2">
-        <v>3.2889435473243114</v>
+        <v>3.2889435577177473</v>
       </c>
       <c r="X2">
-        <v>1.679843309534587</v>
+        <v>1.6798432275040982</v>
       </c>
       <c r="Y2">
-        <v>0.38197858421060804</v>
+        <v>0.38197851926252424</v>
       </c>
       <c r="AA2">
-        <v>3.5229839508138809</v>
+        <v>3.5229829659169982</v>
       </c>
       <c r="AB2">
-        <v>0.98976867449460337</v>
+        <v>0.98976851953544509</v>
       </c>
       <c r="AC2">
-        <v>8.641743802017599</v>
+        <v>8.641742724325173</v>
       </c>
       <c r="AD2">
-        <v>2.1007181459528126</v>
+        <v>2.1007180643203913</v>
       </c>
       <c r="AE2">
-        <v>7.2062684181855703</v>
+        <v>7.2062677904912213</v>
       </c>
       <c r="AF2">
-        <v>2.0801698797303301</v>
+        <v>2.080169694382215</v>
       </c>
       <c r="AG2">
-        <v>7.5035780066921616</v>
+        <v>7.5035779790629604</v>
       </c>
       <c r="AH2">
-        <v>0.6828453764034309</v>
+        <v>0.68284538982061216</v>
       </c>
       <c r="AI2">
-        <v>8.1182910256271938</v>
+        <v>8.1182910834964712</v>
       </c>
       <c r="AJ2">
-        <v>5.6686564874121208</v>
+        <v>5.6686549723368502</v>
       </c>
       <c r="AK2">
-        <v>3.6062455853733724</v>
+        <v>3.6062454592529214</v>
       </c>
       <c r="AL2">
-        <v>1.8175996377072321</v>
+        <v>1.8175997717116867</v>
       </c>
       <c r="AM2">
-        <v>0.30370967732057202</v>
+        <v>0.30370967635272378</v>
       </c>
       <c r="AN2">
-        <v>3.8546182387139036</v>
+        <v>3.854618248298646</v>
       </c>
       <c r="AO2">
-        <v>0.32802324112281173</v>
+        <v>0.32802324160979468</v>
       </c>
       <c r="AP2">
-        <v>0.93759329250913048</v>
+        <v>0.93759315849896818</v>
       </c>
       <c r="AQ2">
-        <v>1.0953367006004562</v>
+        <v>1.095336699717498</v>
       </c>
       <c r="AR2">
-        <v>1.1501641288797855</v>
+        <v>1.1501640504256401</v>
       </c>
       <c r="AS2">
-        <v>1.2606388343576198</v>
+        <v>1.26063850213027</v>
       </c>
       <c r="AT2">
-        <v>1.3921366360864393</v>
+        <v>1.3921366397752013</v>
       </c>
       <c r="AU2">
-        <v>1.483690538752823</v>
+        <v>1.4836905350961056</v>
       </c>
       <c r="AV2">
-        <v>8.3424061094772473</v>
+        <v>8.342404737874725</v>
       </c>
       <c r="AW2">
-        <v>0.41886119103561303</v>
+        <v>0.41886109413923611</v>
       </c>
       <c r="AX2">
-        <v>0.3550854033760133</v>
+        <v>0.35508540350215484</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.0939340898267949</v>
+        <v>6.0939338587034344</v>
       </c>
       <c r="C3">
-        <v>1.4238040049584608</v>
+        <v>1.423804031761857</v>
       </c>
       <c r="D3">
-        <v>0.94228818283819693</v>
+        <v>0.94228820064051055</v>
       </c>
       <c r="E3">
-        <v>4.7154150416244782</v>
+        <v>4.7154154898366212</v>
       </c>
       <c r="F3">
-        <v>3.4608407088658701</v>
+        <v>3.4608404481756363</v>
       </c>
       <c r="G3">
-        <v>2.4470246898521979</v>
+        <v>2.4470246618059996</v>
       </c>
       <c r="H3">
-        <v>5.4199714193476431</v>
+        <v>5.4199714653192972</v>
       </c>
       <c r="I3">
-        <v>0.68848680991922662</v>
+        <v>0.6884869873355135</v>
       </c>
       <c r="J3">
-        <v>6.1133836502062886</v>
+        <v>6.1133836470936513</v>
       </c>
       <c r="K3">
-        <v>2.4893032399635242</v>
+        <v>2.4893032420150711</v>
       </c>
       <c r="L3">
-        <v>1.2163523569445416</v>
+        <v>1.216352425665761</v>
       </c>
       <c r="M3">
-        <v>1.4681846811115016</v>
+        <v>1.4685055736294703</v>
       </c>
       <c r="N3">
-        <v>0.79310967351639761</v>
+        <v>0.79310944099776215</v>
       </c>
       <c r="O3">
-        <v>2.0886368827610391</v>
+        <v>2.0886367795514373</v>
       </c>
       <c r="P3">
-        <v>0.75193067624485266</v>
+        <v>0.75193067033731908</v>
       </c>
       <c r="Q3">
-        <v>0.67603200826435905</v>
+        <v>0.67603200843585631</v>
       </c>
       <c r="R3">
-        <v>0.83904055156460966</v>
+        <v>0.83904061698529964</v>
       </c>
       <c r="S3">
-        <v>0.43848568670938626</v>
+        <v>0.43848569072230692</v>
       </c>
       <c r="T3">
-        <v>0.38202268700808784</v>
+        <v>0.38202268769733955</v>
       </c>
       <c r="U3">
-        <v>2.6944769372802106</v>
+        <v>2.6944768883252039</v>
       </c>
       <c r="V3">
-        <v>0.93295702301050143</v>
+        <v>0.93295704344040742</v>
       </c>
       <c r="W3">
-        <v>0.20957808521015275</v>
+        <v>0.2095780856256908</v>
       </c>
       <c r="X3">
-        <v>0.59373289760720871</v>
+        <v>0.59373291692391816</v>
       </c>
       <c r="Y3">
-        <v>0.74397166100111523</v>
+        <v>0.74397165830731238</v>
       </c>
       <c r="AA3">
-        <v>2.4785475460346551</v>
+        <v>2.4785471364151594</v>
       </c>
       <c r="AB3">
-        <v>12.037564358761392</v>
+        <v>12.037564343120826</v>
       </c>
       <c r="AC3">
-        <v>3.3014611415192476</v>
+        <v>3.3014611440882677</v>
       </c>
       <c r="AD3">
-        <v>2.2136416164196615</v>
+        <v>2.2136415943831746</v>
       </c>
       <c r="AE3">
-        <v>8.8316794796616431</v>
+        <v>8.8316794299187009</v>
       </c>
       <c r="AF3">
-        <v>1.698142526330904</v>
+        <v>1.6981428373029697</v>
       </c>
       <c r="AG3">
-        <v>3.3635366766423522</v>
+        <v>3.3635366548978531</v>
       </c>
       <c r="AH3">
-        <v>0.74016415373909616</v>
+        <v>0.74016415126108637</v>
       </c>
       <c r="AI3">
-        <v>5.498815589135539</v>
+        <v>5.4988143640952103</v>
       </c>
       <c r="AJ3">
-        <v>4.6620417549701187</v>
+        <v>4.6620416303967742</v>
       </c>
       <c r="AK3">
-        <v>0.61235330790523712</v>
+        <v>0.61235330536814381</v>
       </c>
       <c r="AL3">
-        <v>1.5963716212122374</v>
+        <v>1.5963715291354414</v>
       </c>
       <c r="AM3">
-        <v>2.0790317943502576</v>
+        <v>2.0790317919247618</v>
       </c>
       <c r="AN3">
-        <v>3.3165995826516199</v>
+        <v>3.3165995798502315</v>
       </c>
       <c r="AO3">
-        <v>0.67134143137756874</v>
+        <v>0.67134112007433389</v>
       </c>
       <c r="AP3">
-        <v>0.3015010624895248</v>
+        <v>0.30150106418911798</v>
       </c>
       <c r="AQ3">
-        <v>0.32505903964401472</v>
+        <v>0.32505904051203571</v>
       </c>
       <c r="AR3">
-        <v>0.30092909808675161</v>
+        <v>0.30092910082257568</v>
       </c>
       <c r="AS3">
-        <v>1.5996698935385421</v>
+        <v>1.5996699485237571</v>
       </c>
       <c r="AT3">
-        <v>1.3609406870297338</v>
+        <v>1.3609406792771164</v>
       </c>
       <c r="AU3">
-        <v>2.2239201623730716</v>
+        <v>2.2239201598922733</v>
       </c>
       <c r="AV3">
-        <v>0.84381456546363698</v>
+        <v>0.84381456248355402</v>
       </c>
       <c r="AW3">
-        <v>1.971447115988358</v>
+        <v>1.9714472181145382</v>
       </c>
       <c r="AX3">
-        <v>1.1564131006246758</v>
+        <v>1.15641314381308</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gl_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.701196191284404</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.83387411454845017</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>10.24945543150975</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5.7571700904704697</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.6744702423056594</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.8160256900951224</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.253637735215829</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.71545700164345494</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.5997520868493114</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.2643591040345648</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.9866628557669377</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2.0626476415058579</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.9393366116697135E-2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.6461965058822148</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.50352344928927539</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.79900971717120584</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.4438791746789432</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>1.5084321739403446</v>
@@ -585,55 +474,55 @@
         <v>0.38197851926252424</v>
       </c>
       <c r="AA2">
-        <v>3.5229829659169982</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.98976851953544509</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>8.641742724325173</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>2.1007180643203913</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>7.2062677904912213</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.080169694382215</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>7.5035779790629604</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.68284538982061216</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>8.1182910834964712</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>5.6686549723368502</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>3.6062454592529214</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.8175997717116867</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.30370967635272378</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.854618248298646</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.32802324160979468</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.93759315849896818</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.095336699717498</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>1.1501640504256401</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>0.35508540350215484</v>
       </c>
+      <c r="AY2">
+        <v>2.2165971119102794</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>6.0939338587034344</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.423804031761857</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.94228820064051055</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.7154154898366212</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3.4608404481756363</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.4470246618059996</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.4199714653192972</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6884869873355135</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6.1133836470936513</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.4893032420150711</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.216352425665761</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.4685055736294703</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.79310944099776215</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.0886367795514373</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.75193067033731908</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.67603200843585631</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.83904061698529964</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0.43848569072230692</v>
@@ -734,55 +623,55 @@
         <v>0.74397165830731238</v>
       </c>
       <c r="AA3">
-        <v>2.4785471364151594</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>12.037564343120826</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3.3014611440882677</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.2136415943831746</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>8.8316794299187009</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.6981428373029697</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>3.3635366548978531</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.74016415126108637</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>5.4988143640952103</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>4.6620416303967742</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.61235330536814381</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.5963715291354414</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.0790317919247618</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>3.3165995798502315</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.67134112007433389</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.30150106418911798</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.32505904051203571</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0.30092910082257568</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>1.15641314381308</v>
+      </c>
+      <c r="AY3">
+        <v>1.3286083076927484</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gl_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.7011962792075028</v>
+        <v>1.2848039557918909</v>
       </c>
       <c r="C2">
-        <v>0.8338741180933803</v>
+        <v>1.4438791746789432</v>
       </c>
       <c r="D2">
-        <v>10.887415601267117</v>
+        <v>3.854618248298646</v>
       </c>
       <c r="E2">
-        <v>5.757170036044073</v>
+        <v>1.095336699717498</v>
       </c>
       <c r="F2">
         <v>5.6744702339334294</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.0939340898267949</v>
+        <v>2.0886367795514373</v>
       </c>
       <c r="C3">
-        <v>1.4238040049584608</v>
+        <v>0.83904061698529964</v>
       </c>
       <c r="D3">
-        <v>0.94228818283819693</v>
+        <v>3.3165995798502315</v>
       </c>
       <c r="E3">
-        <v>4.7154150416244782</v>
+        <v>0.30385789479096725</v>
       </c>
       <c r="F3">
         <v>3.4608407088658701</v>

--- a/data_output/prism_passive/all_passive_out_emg_gl_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.7011962792075028</v>
-      </c>
       <c r="C2">
-        <v>0.8338741180933803</v>
+        <v>1.2848039557918909</v>
       </c>
       <c r="D2">
-        <v>10.887415601267117</v>
+        <v>0.30370967635272378</v>
       </c>
       <c r="E2">
-        <v>5.757170036044073</v>
+        <v>3.854618248298646</v>
       </c>
       <c r="F2">
         <v>5.6744702339334294</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.0939340898267949</v>
+        <v>0.79310944099776215</v>
       </c>
       <c r="C3">
-        <v>1.4238040049584608</v>
+        <v>2.0886367795514373</v>
       </c>
       <c r="D3">
-        <v>0.94228818283819693</v>
+        <v>2.0790317919247618</v>
       </c>
       <c r="E3">
-        <v>4.7154150416244782</v>
+        <v>3.3165995798502315</v>
       </c>
       <c r="F3">
         <v>3.4608407088658701</v>

--- a/data_output/prism_passive/all_passive_out_emg_gl_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1.701196191284404</v>
+      </c>
       <c r="C2">
+        <v>0.83387411454845017</v>
+      </c>
+      <c r="D2">
+        <v>10.88741203426528</v>
+      </c>
+      <c r="E2">
+        <v>5.7571700904704697</v>
+      </c>
+      <c r="F2">
+        <v>5.6744702423056594</v>
+      </c>
+      <c r="G2">
+        <v>1.8160256900951224</v>
+      </c>
+      <c r="H2">
+        <v>6.253637735215829</v>
+      </c>
+      <c r="I2">
+        <v>0.71545700164345494</v>
+      </c>
+      <c r="J2">
+        <v>7.5997520868493114</v>
+      </c>
+      <c r="K2">
+        <v>4.2643591040345648</v>
+      </c>
+      <c r="L2">
+        <v>3.9866628557669377</v>
+      </c>
+      <c r="M2">
+        <v>2.0626476415058579</v>
+      </c>
+      <c r="O2">
         <v>1.2848039557918909</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.50352344928927539</v>
+      </c>
+      <c r="Q2">
+        <v>0.79900971717120584</v>
+      </c>
+      <c r="R2">
+        <v>1.4438791746789432</v>
+      </c>
+      <c r="S2">
+        <v>1.5084321739403446</v>
+      </c>
+      <c r="T2">
+        <v>0.69486907358121186</v>
+      </c>
+      <c r="U2">
+        <v>2.8561825938090251</v>
+      </c>
+      <c r="V2">
+        <v>1.9834313405165218</v>
+      </c>
+      <c r="W2">
+        <v>3.2889435577177473</v>
+      </c>
+      <c r="X2">
+        <v>1.6798432275040982</v>
+      </c>
+      <c r="Y2">
+        <v>0.32348780399379773</v>
+      </c>
+      <c r="AA2">
+        <v>3.5229829659169982</v>
+      </c>
+      <c r="AB2">
+        <v>0.98976851953544542</v>
+      </c>
+      <c r="AC2">
+        <v>8.641742724325173</v>
+      </c>
+      <c r="AD2">
+        <v>2.1007180643203913</v>
+      </c>
+      <c r="AE2">
+        <v>7.2062677904912213</v>
+      </c>
+      <c r="AF2">
+        <v>2.080169694382215</v>
+      </c>
+      <c r="AG2">
+        <v>7.5035779790629604</v>
+      </c>
+      <c r="AH2">
+        <v>0.87592629707735148</v>
+      </c>
+      <c r="AI2">
+        <v>8.1182910834964712</v>
+      </c>
+      <c r="AJ2">
+        <v>5.6686549723368502</v>
+      </c>
+      <c r="AK2">
+        <v>3.6062454592529214</v>
+      </c>
+      <c r="AL2">
+        <v>1.8175997717116867</v>
+      </c>
+      <c r="AM2">
         <v>0.30370967635272378</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.854618248298646</v>
       </c>
-      <c r="F2">
-        <v>5.6744702339334294</v>
-      </c>
-      <c r="G2">
-        <v>1.8160258777125129</v>
-      </c>
-      <c r="H2">
-        <v>6.2536377399074041</v>
-      </c>
-      <c r="I2">
-        <v>0.7154571043361001</v>
-      </c>
-      <c r="J2">
-        <v>7.5997510167282698</v>
-      </c>
-      <c r="K2">
-        <v>4.2643591291609697</v>
-      </c>
-      <c r="L2">
-        <v>3.9866634325775347</v>
-      </c>
-      <c r="M2">
-        <v>2.0626476157028995</v>
-      </c>
-      <c r="O2">
-        <v>1.2848041420311025</v>
-      </c>
-      <c r="P2">
-        <v>0.5035235097129972</v>
-      </c>
-      <c r="Q2">
-        <v>0.79900971803841314</v>
-      </c>
-      <c r="R2">
-        <v>1.4438790196930278</v>
-      </c>
-      <c r="S2">
-        <v>1.5084321738155946</v>
-      </c>
-      <c r="T2">
-        <v>0.6948690867865619</v>
-      </c>
-      <c r="U2">
-        <v>2.8561825935676866</v>
-      </c>
-      <c r="V2">
-        <v>1.9834314519963065</v>
-      </c>
-      <c r="W2">
-        <v>3.2889435473243114</v>
-      </c>
-      <c r="X2">
-        <v>1.679843309534587</v>
-      </c>
-      <c r="Y2">
-        <v>0.32348780396603022</v>
-      </c>
-      <c r="AA2">
-        <v>3.5229839508138809</v>
-      </c>
-      <c r="AB2">
-        <v>0.98976867449460071</v>
-      </c>
-      <c r="AC2">
-        <v>8.641743802017599</v>
-      </c>
-      <c r="AD2">
-        <v>2.1007181459528126</v>
-      </c>
-      <c r="AE2">
-        <v>7.2062684181855703</v>
-      </c>
-      <c r="AF2">
-        <v>2.0801698797303301</v>
-      </c>
-      <c r="AG2">
-        <v>7.5035780066921616</v>
-      </c>
-      <c r="AH2">
-        <v>0.8759262798398938</v>
-      </c>
-      <c r="AI2">
-        <v>8.1182910256271938</v>
-      </c>
-      <c r="AJ2">
-        <v>5.6686564874121208</v>
-      </c>
-      <c r="AK2">
-        <v>3.6062455853733724</v>
-      </c>
-      <c r="AL2">
-        <v>1.8175996377072321</v>
-      </c>
-      <c r="AM2">
-        <v>0.30370967732057202</v>
-      </c>
-      <c r="AN2">
-        <v>3.8546182387139036</v>
-      </c>
       <c r="AO2">
-        <v>0.32802324112281173</v>
+        <v>0.32802324160979468</v>
       </c>
       <c r="AP2">
-        <v>0.81255898743961186</v>
+        <v>0.81255898363799284</v>
       </c>
       <c r="AQ2">
-        <v>1.0953367006004562</v>
+        <v>1.095336699717498</v>
       </c>
       <c r="AR2">
-        <v>1.1501641288797855</v>
+        <v>1.1501640504256401</v>
       </c>
       <c r="AS2">
-        <v>1.2606388343576198</v>
+        <v>1.26063850213027</v>
       </c>
       <c r="AT2">
-        <v>1.3921366360864393</v>
+        <v>1.3921366397752013</v>
       </c>
       <c r="AU2">
-        <v>1.483690538752823</v>
+        <v>1.4836905350961056</v>
       </c>
       <c r="AV2">
-        <v>8.3424061094772473</v>
+        <v>8.342404737874725</v>
       </c>
       <c r="AW2">
-        <v>0.41886119103561303</v>
+        <v>0.41886109413923611</v>
       </c>
       <c r="AX2">
-        <v>0.3550854033760133</v>
+        <v>0.35508540350215484</v>
       </c>
       <c r="AY2">
-        <v>2.2165971783744212</v>
+        <v>2.2165971119102794</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>6.0939338587034344</v>
+      </c>
+      <c r="C3">
+        <v>1.423804031761857</v>
+      </c>
+      <c r="D3">
+        <v>0.94228820064051055</v>
+      </c>
+      <c r="E3">
+        <v>4.7154154898366212</v>
+      </c>
+      <c r="F3">
+        <v>3.4608404481756363</v>
+      </c>
+      <c r="G3">
+        <v>2.4470246618059996</v>
+      </c>
+      <c r="H3">
+        <v>5.4199714653192972</v>
+      </c>
+      <c r="I3">
+        <v>0.96958769747168738</v>
+      </c>
+      <c r="J3">
+        <v>6.1133836470936513</v>
+      </c>
+      <c r="K3">
+        <v>2.4893032420150711</v>
+      </c>
+      <c r="L3">
+        <v>1.216352425665761</v>
+      </c>
+      <c r="M3">
+        <v>1.4685055736294703</v>
+      </c>
+      <c r="N3">
         <v>0.79310944099776215</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>2.0886367795514373</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.75193067033731908</v>
+      </c>
+      <c r="Q3">
+        <v>0.67603200843585631</v>
+      </c>
+      <c r="R3">
+        <v>0.83904061698529964</v>
+      </c>
+      <c r="S3">
+        <v>0.36363079189064224</v>
+      </c>
+      <c r="T3">
+        <v>0.38333447735783932</v>
+      </c>
+      <c r="U3">
+        <v>2.6944768883252039</v>
+      </c>
+      <c r="V3">
+        <v>0.93295704344040742</v>
+      </c>
+      <c r="W3">
+        <v>0.18374096182244012</v>
+      </c>
+      <c r="X3">
+        <v>0.59373291692391816</v>
+      </c>
+      <c r="Y3">
+        <v>0.74397165830731238</v>
+      </c>
+      <c r="AA3">
+        <v>2.4785471364151594</v>
+      </c>
+      <c r="AB3">
+        <v>12.037564343120826</v>
+      </c>
+      <c r="AC3">
+        <v>2.9927821020066974</v>
+      </c>
+      <c r="AD3">
+        <v>2.2136415943831746</v>
+      </c>
+      <c r="AE3">
+        <v>8.8316794299187009</v>
+      </c>
+      <c r="AF3">
+        <v>1.6981428373029697</v>
+      </c>
+      <c r="AG3">
+        <v>2.8028778618719485</v>
+      </c>
+      <c r="AH3">
+        <v>0.50584872475650611</v>
+      </c>
+      <c r="AI3">
+        <v>5.4988143640952103</v>
+      </c>
+      <c r="AJ3">
+        <v>4.6620416303967742</v>
+      </c>
+      <c r="AK3">
+        <v>0.61235330536814381</v>
+      </c>
+      <c r="AL3">
+        <v>1.5963715291354414</v>
+      </c>
+      <c r="AM3">
         <v>2.0790317919247618</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>3.3165995798502315</v>
       </c>
-      <c r="F3">
-        <v>3.4608407088658701</v>
-      </c>
-      <c r="G3">
-        <v>2.4470246898521979</v>
-      </c>
-      <c r="H3">
-        <v>5.4199714193476431</v>
-      </c>
-      <c r="I3">
-        <v>0.96958743069132447</v>
-      </c>
-      <c r="J3">
-        <v>6.1133836502062886</v>
-      </c>
-      <c r="K3">
-        <v>2.4893032399635242</v>
-      </c>
-      <c r="L3">
-        <v>1.2163523569445416</v>
-      </c>
-      <c r="M3">
-        <v>1.4681846811115016</v>
-      </c>
-      <c r="N3">
-        <v>0.79310967351639761</v>
-      </c>
-      <c r="O3">
-        <v>2.0886368827610391</v>
-      </c>
-      <c r="P3">
-        <v>0.75193067624485266</v>
-      </c>
-      <c r="Q3">
-        <v>0.67603200826435905</v>
-      </c>
-      <c r="R3">
-        <v>0.83904055156460966</v>
-      </c>
-      <c r="S3">
-        <v>0.36363078700527973</v>
-      </c>
-      <c r="T3">
-        <v>0.38333447724583641</v>
-      </c>
-      <c r="U3">
-        <v>2.6944769372802106</v>
-      </c>
-      <c r="V3">
-        <v>0.93295702301050143</v>
-      </c>
-      <c r="W3">
-        <v>0.18374096139824134</v>
-      </c>
-      <c r="X3">
-        <v>0.59373289760720871</v>
-      </c>
-      <c r="Y3">
-        <v>0.74397166100111523</v>
-      </c>
-      <c r="AA3">
-        <v>2.4785475460346551</v>
-      </c>
-      <c r="AB3">
-        <v>12.037564358761392</v>
-      </c>
-      <c r="AC3">
-        <v>2.9927821068739755</v>
-      </c>
-      <c r="AD3">
-        <v>2.2136416164196615</v>
-      </c>
-      <c r="AE3">
-        <v>8.8316794796616431</v>
-      </c>
-      <c r="AF3">
-        <v>1.698142526330904</v>
-      </c>
-      <c r="AG3">
-        <v>2.8028777957609048</v>
-      </c>
-      <c r="AH3">
-        <v>0.50584872179208784</v>
-      </c>
-      <c r="AI3">
-        <v>5.498815589135539</v>
-      </c>
-      <c r="AJ3">
-        <v>4.6620417549701187</v>
-      </c>
-      <c r="AK3">
-        <v>0.61235330790523712</v>
-      </c>
-      <c r="AL3">
-        <v>1.5963716212122374</v>
-      </c>
-      <c r="AM3">
-        <v>2.0790317943502576</v>
-      </c>
-      <c r="AN3">
-        <v>3.3165995826516199</v>
-      </c>
       <c r="AO3">
-        <v>0.67134143137756874</v>
+        <v>0.67134112007433389</v>
       </c>
       <c r="AP3">
-        <v>0.40598418199501418</v>
+        <v>0.40598417789655805</v>
       </c>
       <c r="AQ3">
-        <v>0.30385801053853068</v>
+        <v>0.30385789479096725</v>
       </c>
       <c r="AR3">
-        <v>0.27163219521472753</v>
+        <v>0.27163219459321392</v>
       </c>
       <c r="AS3">
-        <v>1.5996698935385421</v>
+        <v>1.5996699485237571</v>
       </c>
       <c r="AT3">
-        <v>1.3609406870297338</v>
+        <v>1.3609406792771164</v>
       </c>
       <c r="AU3">
-        <v>2.2239201623730716</v>
+        <v>2.2239201598922733</v>
       </c>
       <c r="AV3">
-        <v>0.84381456546363698</v>
+        <v>0.84381456248355402</v>
       </c>
       <c r="AW3">
-        <v>1.971447115988358</v>
+        <v>1.9714472181145382</v>
       </c>
       <c r="AX3">
-        <v>1.1564131006246758</v>
+        <v>1.15641314381308</v>
       </c>
       <c r="AY3">
-        <v>1.3286084561422913</v>
+        <v>1.3286083076927484</v>
       </c>
     </row>
   </sheetData>
